--- a/pub/Trash/SoftwareTeam2010-04-06/VDTEffort.2011.04.06.xlsx
+++ b/pub/Trash/SoftwareTeam2010-04-06/VDTEffort.2011.04.06.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="16960" tabRatio="400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23420" windowHeight="22180" tabRatio="400"/>
   </bookViews>
   <sheets>
     <sheet name="Effort Detail" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="55" r:id="rId4"/>
+    <pivotCache cacheId="10" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -552,7 +552,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Alain Roy" refreshedDate="40639.772009375003" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="40">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Alain Roy" refreshedDate="40640.411882291664" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="40">
   <cacheSource type="worksheet">
     <worksheetSource ref="A5:I45" sheet="Effort Detail"/>
   </cacheSource>
@@ -675,7 +675,7 @@
     <s v="TBD"/>
     <x v="2"/>
     <n v="0"/>
-    <n v="0"/>
+    <n v="15"/>
     <n v="10"/>
     <n v="10"/>
   </r>
@@ -851,9 +851,9 @@
     <s v="Ongoing"/>
     <x v="2"/>
     <n v="20"/>
-    <n v="20"/>
-    <n v="10"/>
-    <n v="10"/>
+    <n v="6"/>
+    <n v="6"/>
+    <n v="6"/>
   </r>
   <r>
     <x v="7"/>
@@ -873,7 +873,7 @@
     <s v="Ongoing"/>
     <x v="2"/>
     <n v="16"/>
-    <n v="16"/>
+    <n v="15"/>
     <n v="10"/>
     <n v="10"/>
   </r>
@@ -895,7 +895,7 @@
     <m/>
     <x v="2"/>
     <n v="12"/>
-    <n v="12"/>
+    <n v="6"/>
     <n v="0"/>
     <n v="0"/>
   </r>
@@ -972,7 +972,7 @@
     <d v="2011-03-01T00:00:00"/>
     <x v="2"/>
     <n v="2"/>
-    <n v="0"/>
+    <n v="6"/>
     <n v="0"/>
     <n v="0"/>
   </r>
@@ -1016,7 +1016,7 @@
     <s v="Continuous"/>
     <x v="2"/>
     <n v="10"/>
-    <n v="10"/>
+    <n v="6"/>
     <n v="10"/>
     <n v="10"/>
   </r>
@@ -1049,7 +1049,7 @@
     <s v="TBD"/>
     <x v="2"/>
     <n v="0"/>
-    <n v="0"/>
+    <n v="6"/>
     <n v="5"/>
     <n v="5"/>
   </r>
@@ -1090,7 +1090,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="55" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:E43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -1305,7 +1305,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="55" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:E15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -1727,7 +1727,7 @@
   <dimension ref="A2:N93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -2336,13 +2336,13 @@
         <v>20</v>
       </c>
       <c r="G24" s="6">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H24" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1">
@@ -2394,7 +2394,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -2450,7 +2450,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H39" s="7">
         <v>10</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H42" s="7">
         <v>5</v>
@@ -3336,7 +3336,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3383,7 +3383,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="19">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="19">
         <v>42</v>
@@ -3400,7 +3400,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="19">
         <v>12</v>
@@ -3519,7 +3519,7 @@
         <v>40</v>
       </c>
       <c r="C13" s="19">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D13" s="19">
         <v>40</v>
@@ -3536,7 +3536,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D14" s="19">
         <v>10</v>
@@ -3570,7 +3570,7 @@
         <v>70</v>
       </c>
       <c r="C16" s="19">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D16" s="19">
         <v>17</v>
@@ -3587,7 +3587,7 @@
         <v>53</v>
       </c>
       <c r="C17" s="19">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D17" s="19">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="19">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D21" s="19">
         <v>25</v>
@@ -3672,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D22" s="19">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>140</v>
       </c>
       <c r="C27" s="19">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D27" s="19">
         <v>55</v>
@@ -3791,7 +3791,7 @@
         <v>50</v>
       </c>
       <c r="C29" s="19">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D29" s="19">
         <v>45</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D32" s="19">
         <v>10</v>
@@ -3995,13 +3995,13 @@
         <v>20</v>
       </c>
       <c r="C41" s="19">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D41" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E41" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4012,13 +4012,13 @@
         <v>20</v>
       </c>
       <c r="C42" s="19">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D42" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E42" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4029,13 +4029,13 @@
         <v>500</v>
       </c>
       <c r="C43" s="19">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D43" s="19">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E43" s="19">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4053,7 +4053,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4236,13 +4236,13 @@
         <v>70</v>
       </c>
       <c r="C13" s="19">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D13" s="19">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E13" s="19">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4270,13 +4270,13 @@
         <v>500</v>
       </c>
       <c r="C15" s="19">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D15" s="19">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E15" s="19">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
